--- a/notebooks/data/decomposition/azeri_light.xlsx
+++ b/notebooks/data/decomposition/azeri_light.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iasamadov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iasamadov\Desktop\loan_sales_prediction\notebooks\data\decomposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502E8A15-B97F-414C-97FE-F744C22C805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC93E8C-E83D-4794-91D9-3A4046E1CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{B7081573-B223-46BF-B9DE-DEC0925F7390}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Azeri Light</t>
+    <t>Azeri_Light</t>
   </si>
 </sst>
 </file>
